--- a/东兴馆店铺运营/沉香线香2017/店铺情况/按周统计/3月/店铺经营情况20170227-20170305.xlsx
+++ b/东兴馆店铺运营/沉香线香2017/店铺情况/按周统计/3月/店铺经营情况20170227-20170305.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="411" uniqueCount="247">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="417" uniqueCount="248">
   <si>
     <t>店铺成交转化</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -796,6 +796,10 @@
   </si>
   <si>
     <t>20170306-20170312</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20170313-20170319</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1072,16 +1076,16 @@
     <xf numFmtId="4" fontId="4" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="4" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1404,12 +1408,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U12"/>
+  <dimension ref="A1:U18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="H13" sqref="H13"/>
+      <selection pane="bottomLeft" activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1500,7 +1504,7 @@
       </c>
     </row>
     <row r="2" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="31" t="s">
+      <c r="A2" s="33" t="s">
         <v>244</v>
       </c>
       <c r="B2" s="22" t="s">
@@ -1538,7 +1542,7 @@
       </c>
     </row>
     <row r="3" spans="1:21" s="23" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="31"/>
+      <c r="A3" s="33"/>
       <c r="B3" s="23" t="s">
         <v>18</v>
       </c>
@@ -1574,11 +1578,11 @@
       </c>
     </row>
     <row r="4" spans="1:21" s="23" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="31"/>
+      <c r="A4" s="33"/>
       <c r="B4" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="34">
+      <c r="C4" s="32">
         <v>2652</v>
       </c>
       <c r="D4" s="27">
@@ -1619,7 +1623,7 @@
       </c>
     </row>
     <row r="5" spans="1:21" s="23" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="31"/>
+      <c r="A5" s="33"/>
       <c r="B5" s="23" t="s">
         <v>20</v>
       </c>
@@ -1664,7 +1668,7 @@
       </c>
     </row>
     <row r="6" spans="1:21" s="23" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="31"/>
+      <c r="A6" s="33"/>
       <c r="B6" s="23" t="s">
         <v>21</v>
       </c>
@@ -1708,9 +1712,9 @@
         <v>30.47</v>
       </c>
     </row>
-    <row r="7" spans="1:21" s="33" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="7" spans="1:21" s="31" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="8" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="31" t="s">
+      <c r="A8" s="33" t="s">
         <v>246</v>
       </c>
       <c r="B8" s="22" t="s">
@@ -1748,7 +1752,7 @@
       </c>
     </row>
     <row r="9" spans="1:21" s="23" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="31"/>
+      <c r="A9" s="33"/>
       <c r="B9" s="23" t="s">
         <v>18</v>
       </c>
@@ -1784,11 +1788,11 @@
       </c>
     </row>
     <row r="10" spans="1:21" s="23" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="31"/>
+      <c r="A10" s="33"/>
       <c r="B10" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="34">
+      <c r="C10" s="32">
         <v>2903</v>
       </c>
       <c r="D10" s="27">
@@ -1829,7 +1833,7 @@
       </c>
     </row>
     <row r="11" spans="1:21" s="23" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="31"/>
+      <c r="A11" s="33"/>
       <c r="B11" s="23" t="s">
         <v>20</v>
       </c>
@@ -1874,7 +1878,7 @@
       </c>
     </row>
     <row r="12" spans="1:21" s="23" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="31"/>
+      <c r="A12" s="33"/>
       <c r="B12" s="23" t="s">
         <v>21</v>
       </c>
@@ -1918,11 +1922,213 @@
         <v>30.41</v>
       </c>
     </row>
+    <row r="13" spans="1:21" s="31" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="14" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="33" t="s">
+        <v>247</v>
+      </c>
+      <c r="B14" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" s="7">
+        <v>5003</v>
+      </c>
+      <c r="D14" s="7">
+        <v>1618</v>
+      </c>
+      <c r="E14" s="7">
+        <v>10958</v>
+      </c>
+      <c r="F14" s="7">
+        <v>74</v>
+      </c>
+      <c r="G14" s="7">
+        <v>75</v>
+      </c>
+      <c r="H14" s="7">
+        <v>228</v>
+      </c>
+      <c r="I14" s="7">
+        <v>148.09</v>
+      </c>
+      <c r="J14" s="7">
+        <v>4.57</v>
+      </c>
+      <c r="K14" s="7">
+        <v>91.46</v>
+      </c>
+      <c r="U14" s="7">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" s="23" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="33"/>
+      <c r="B15" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" s="23">
+        <v>792</v>
+      </c>
+      <c r="D15" s="23">
+        <v>245</v>
+      </c>
+      <c r="E15" s="23">
+        <v>751</v>
+      </c>
+      <c r="F15" s="23">
+        <v>11</v>
+      </c>
+      <c r="G15" s="23">
+        <v>11</v>
+      </c>
+      <c r="H15" s="23">
+        <v>15</v>
+      </c>
+      <c r="I15" s="23">
+        <v>68.27</v>
+      </c>
+      <c r="J15" s="23">
+        <v>4.49</v>
+      </c>
+      <c r="K15" s="23">
+        <v>100</v>
+      </c>
+      <c r="L15" s="23">
+        <v>1.83</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" s="23" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="33"/>
+      <c r="B16" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="C16" s="32">
+        <v>2885</v>
+      </c>
+      <c r="D16" s="27">
+        <v>925</v>
+      </c>
+      <c r="E16" s="30">
+        <v>9044.7999999999993</v>
+      </c>
+      <c r="F16" s="27">
+        <v>44</v>
+      </c>
+      <c r="G16" s="27">
+        <v>45</v>
+      </c>
+      <c r="H16" s="27">
+        <v>184</v>
+      </c>
+      <c r="I16" s="27">
+        <v>205.56</v>
+      </c>
+      <c r="J16" s="28">
+        <v>4.7600000000000003E-2</v>
+      </c>
+      <c r="L16" s="23">
+        <v>1.38</v>
+      </c>
+      <c r="M16" s="23">
+        <v>29</v>
+      </c>
+      <c r="N16" s="23">
+        <v>89.9</v>
+      </c>
+      <c r="O16" s="23">
+        <v>252.7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" s="23" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="33"/>
+      <c r="B17" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" s="26">
+        <v>925</v>
+      </c>
+      <c r="D17" s="27">
+        <v>284</v>
+      </c>
+      <c r="E17" s="30">
+        <v>1076.5</v>
+      </c>
+      <c r="F17" s="27">
+        <v>16</v>
+      </c>
+      <c r="G17" s="27">
+        <v>16</v>
+      </c>
+      <c r="H17" s="27">
+        <v>26</v>
+      </c>
+      <c r="I17" s="27">
+        <v>67.28</v>
+      </c>
+      <c r="J17" s="28">
+        <v>5.6300000000000003E-2</v>
+      </c>
+      <c r="L17" s="23">
+        <v>1.67</v>
+      </c>
+      <c r="M17" s="23">
+        <v>50</v>
+      </c>
+      <c r="N17" s="23">
+        <v>77.44</v>
+      </c>
+      <c r="O17" s="23">
+        <v>62.11</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" s="23" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="33"/>
+      <c r="B18" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="C18" s="26">
+        <v>329</v>
+      </c>
+      <c r="D18" s="27">
+        <v>141</v>
+      </c>
+      <c r="E18" s="27">
+        <v>28</v>
+      </c>
+      <c r="F18" s="27">
+        <v>1</v>
+      </c>
+      <c r="G18" s="27">
+        <v>1</v>
+      </c>
+      <c r="H18" s="27">
+        <v>1</v>
+      </c>
+      <c r="I18" s="27">
+        <v>28</v>
+      </c>
+      <c r="J18" s="28">
+        <v>7.1000000000000004E-3</v>
+      </c>
+      <c r="L18" s="23">
+        <v>1.65</v>
+      </c>
+      <c r="M18" s="23">
+        <v>67</v>
+      </c>
+      <c r="N18" s="23">
+        <v>74.38</v>
+      </c>
+      <c r="O18" s="23">
+        <v>42.78</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:R6"/>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="A8:A12"/>
     <mergeCell ref="A2:A6"/>
+    <mergeCell ref="A14:A18"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1968,7 +2174,7 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A2" s="32" t="s">
+      <c r="A2" s="34" t="s">
         <v>235</v>
       </c>
       <c r="B2" s="25" t="s">
@@ -1988,7 +2194,7 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A3" s="32"/>
+      <c r="A3" s="34"/>
       <c r="B3" s="25" t="s">
         <v>232</v>
       </c>
@@ -2006,7 +2212,7 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A4" s="32"/>
+      <c r="A4" s="34"/>
       <c r="B4" s="25" t="s">
         <v>230</v>
       </c>
@@ -2024,7 +2230,7 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A5" s="32"/>
+      <c r="A5" s="34"/>
       <c r="B5" s="25" t="s">
         <v>225</v>
       </c>
@@ -2042,7 +2248,7 @@
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A6" s="32"/>
+      <c r="A6" s="34"/>
       <c r="B6" s="25" t="s">
         <v>233</v>
       </c>
@@ -2060,7 +2266,7 @@
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A7" s="32"/>
+      <c r="A7" s="34"/>
       <c r="B7" s="25" t="s">
         <v>227</v>
       </c>
@@ -2078,7 +2284,7 @@
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A8" s="32"/>
+      <c r="A8" s="34"/>
       <c r="B8" s="25" t="s">
         <v>226</v>
       </c>
@@ -2096,7 +2302,7 @@
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A9" s="32"/>
+      <c r="A9" s="34"/>
       <c r="B9" s="25" t="s">
         <v>234</v>
       </c>
@@ -2114,7 +2320,7 @@
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A10" s="32"/>
+      <c r="A10" s="34"/>
       <c r="B10" s="25" t="s">
         <v>229</v>
       </c>
@@ -2140,7 +2346,7 @@
       <c r="F11" s="29"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A12" s="32" t="s">
+      <c r="A12" s="34" t="s">
         <v>243</v>
       </c>
       <c r="B12" s="25" t="s">
@@ -2160,7 +2366,7 @@
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A13" s="32"/>
+      <c r="A13" s="34"/>
       <c r="B13" s="25" t="s">
         <v>236</v>
       </c>
@@ -2178,7 +2384,7 @@
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A14" s="32"/>
+      <c r="A14" s="34"/>
       <c r="B14" s="25" t="s">
         <v>229</v>
       </c>
@@ -2196,7 +2402,7 @@
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A15" s="32"/>
+      <c r="A15" s="34"/>
       <c r="B15" s="25" t="s">
         <v>234</v>
       </c>
@@ -2214,7 +2420,7 @@
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A16" s="32"/>
+      <c r="A16" s="34"/>
       <c r="B16" s="25" t="s">
         <v>237</v>
       </c>
@@ -2232,7 +2438,7 @@
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A17" s="32"/>
+      <c r="A17" s="34"/>
       <c r="B17" s="25" t="s">
         <v>228</v>
       </c>
@@ -2250,7 +2456,7 @@
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A18" s="32"/>
+      <c r="A18" s="34"/>
       <c r="B18" s="25" t="s">
         <v>227</v>
       </c>
@@ -2268,7 +2474,7 @@
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A19" s="32"/>
+      <c r="A19" s="34"/>
       <c r="B19" s="25" t="s">
         <v>238</v>
       </c>
@@ -2286,7 +2492,7 @@
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A20" s="32"/>
+      <c r="A20" s="34"/>
       <c r="B20" s="25" t="s">
         <v>239</v>
       </c>
@@ -2304,7 +2510,7 @@
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A21" s="32"/>
+      <c r="A21" s="34"/>
       <c r="B21" s="25" t="s">
         <v>240</v>
       </c>
@@ -2322,7 +2528,7 @@
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A22" s="32"/>
+      <c r="A22" s="34"/>
       <c r="B22" s="25" t="s">
         <v>241</v>
       </c>
@@ -2340,7 +2546,7 @@
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A23" s="32"/>
+      <c r="A23" s="34"/>
       <c r="B23" s="25" t="s">
         <v>242</v>
       </c>
